--- a/notebooks/city_tram_transfer_stations_df8.xlsx
+++ b/notebooks/city_tram_transfer_stations_df8.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/notebooks/city_tram_transfer_stations_df8.xlsx
+++ b/notebooks/city_tram_transfer_stations_df8.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/notebooks/city_tram_transfer_stations_df8.xlsx
+++ b/notebooks/city_tram_transfer_stations_df8.xlsx
@@ -493,29 +493,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>POINT (4.7944986 52.3509515)</t>
+          <t>POINT (4.9326128 52.3607965)</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1776</v>
+        <v>1341</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Baden Powellweg</t>
+          <t>Muiderpoortstation</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.7944986</v>
+        <v>4.9326128</v>
       </c>
       <c r="F2" t="n">
-        <v>52.3509515</v>
+        <v>52.3607965</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(4.7944986, 52.3509515)</t>
+          <t>(4.9326128, 52.3607965)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -530,41 +530,41 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>POINT (4.8018381 52.3524376)</t>
+          <t>POINT (4.9289422 52.3609314)</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1686</v>
+        <v>1503</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hoekenes</t>
+          <t>Dapperstraat</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.8018381</v>
+        <v>4.9289422</v>
       </c>
       <c r="F3" t="n">
-        <v>52.3524376</v>
+        <v>52.3609314</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(4.8018381, 52.3524376)</t>
+          <t>(4.9289422, 52.3609314)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -579,41 +579,41 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>POINT (4.8099119 52.35637)</t>
+          <t>POINT (4.9257029 52.3601162)</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1784</v>
+        <v>1606</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Meer en Vaart</t>
+          <t>Linnaeusstraat</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.8099119</v>
+        <v>4.9257029</v>
       </c>
       <c r="F4" t="n">
-        <v>52.35637</v>
+        <v>52.3601162</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(4.8099119, 52.35637)</t>
+          <t>(4.9257029, 52.3601162)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -628,41 +628,41 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>POINT (4.8258953 52.3578123)</t>
+          <t>POINT (4.9167422 52.3590732)</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1780</v>
+        <v>1612</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Johan Huizingalaan</t>
+          <t>Beukenweg</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.8258953</v>
+        <v>4.9167422</v>
       </c>
       <c r="F5" t="n">
-        <v>52.3578123</v>
+        <v>52.3590732</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(4.8258953, 52.3578123)</t>
+          <t>(4.9167422, 52.3590732)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -677,41 +677,41 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1, 17, 2</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1, 17, 2</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>POINT (4.8337835 52.3579004)</t>
+          <t>POINT (4.9135923 52.3623479)</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1786</v>
+        <v>1598</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Station Lelylaan</t>
+          <t>Korte 's-Gravesandestraat</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.8337835</v>
+        <v>4.9135923</v>
       </c>
       <c r="F6" t="n">
-        <v>52.3579004</v>
+        <v>52.3623479</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(4.8337835, 52.3579004)</t>
+          <t>(4.9135923, 52.3623479)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -726,41 +726,41 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>POINT (4.8397482 52.3579573)</t>
+          <t>POINT (4.9071213 52.3610021)</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1687</v>
+        <v>1580</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Derkinderenstraat</t>
+          <t>Weesperplein</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.8397482</v>
+        <v>4.9071213</v>
       </c>
       <c r="F7" t="n">
-        <v>52.3579573</v>
+        <v>52.3610021</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(4.8397482, 52.3579573)</t>
+          <t>(4.9071213, 52.3610021)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -775,41 +775,41 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>POINT (4.8509943 52.3580728)</t>
+          <t>POINT (4.8978483 52.3594109)</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1536</v>
+        <v>1254</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Surinameplein</t>
+          <t>Frederiksplein</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.8509943</v>
+        <v>4.8978483</v>
       </c>
       <c r="F8" t="n">
-        <v>52.3580728</v>
+        <v>52.3594109</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(4.8509943, 52.3580728)</t>
+          <t>(4.8978483, 52.3594109)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -824,41 +824,41 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 4, 7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 4, 7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>POINT (4.8810698 52.3632085)</t>
+          <t>POINT (4.8921024 52.3595051)</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1871</v>
+        <v>1599</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Vijzelgracht</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.8810698</v>
+        <v>4.8921024</v>
       </c>
       <c r="F9" t="n">
-        <v>52.3632085</v>
+        <v>52.3595051</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(4.8810698, 52.3632085)</t>
+          <t>(4.8921024, 52.3595051)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1, 12, 19, 2, 5, 7</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1, 12, 19, 2, 5, 7</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
     </row>
@@ -934,29 +934,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>POINT (4.8921024 52.3595051)</t>
+          <t>POINT (4.8810698 52.3632085)</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1599</v>
+        <v>1871</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
+          <t>Leidseplein</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.8921024</v>
+        <v>4.8810698</v>
       </c>
       <c r="F11" t="n">
-        <v>52.3595051</v>
+        <v>52.3632085</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(4.8921024, 52.3595051)</t>
+          <t>(4.8810698, 52.3632085)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -971,41 +971,41 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1, 19, 24, 7</t>
+          <t>1, 12, 19, 2, 5, 7</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1, 19, 24, 7</t>
+          <t>1, 12, 19, 2, 5, 7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>POINT (4.8978483 52.3594109)</t>
+          <t>POINT (4.8509943 52.3580728)</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1254</v>
+        <v>1536</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
+          <t>Surinameplein</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.8978483</v>
+        <v>4.8509943</v>
       </c>
       <c r="F12" t="n">
-        <v>52.3594109</v>
+        <v>52.3580728</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(4.8978483, 52.3594109)</t>
+          <t>(4.8509943, 52.3580728)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1020,41 +1020,41 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1, 19, 4, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1, 19, 4, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>POINT (4.9071213 52.3610021)</t>
+          <t>POINT (4.8397482 52.3579573)</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1580</v>
+        <v>1687</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
+          <t>Derkinderenstraat</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.9071213</v>
+        <v>4.8397482</v>
       </c>
       <c r="F13" t="n">
-        <v>52.3610021</v>
+        <v>52.3579573</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(4.9071213, 52.3610021)</t>
+          <t>(4.8397482, 52.3579573)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1069,41 +1069,41 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1, 19, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1, 19, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>POINT (4.9135923 52.3623479)</t>
+          <t>POINT (4.8337835 52.3579004)</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1598</v>
+        <v>1786</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Korte 's-Gravesandestraat</t>
+          <t>Station Lelylaan</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.9135923</v>
+        <v>4.8337835</v>
       </c>
       <c r="F14" t="n">
-        <v>52.3623479</v>
+        <v>52.3579004</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(4.9135923, 52.3623479)</t>
+          <t>(4.8337835, 52.3579004)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1118,41 +1118,41 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1, 19, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1, 19, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>POINT (4.9167422 52.3590732)</t>
+          <t>POINT (4.8258953 52.3578123)</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1612</v>
+        <v>1780</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Beukenweg</t>
+          <t>Johan Huizingalaan</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.9167422</v>
+        <v>4.8258953</v>
       </c>
       <c r="F15" t="n">
-        <v>52.3590732</v>
+        <v>52.3578123</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(4.9167422, 52.3590732)</t>
+          <t>(4.8258953, 52.3578123)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1167,41 +1167,41 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17, 2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17, 2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>POINT (4.9257029 52.3601162)</t>
+          <t>POINT (4.8099119 52.35637)</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1606</v>
+        <v>1784</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Linnaeusstraat</t>
+          <t>Meer en Vaart</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.9257029</v>
+        <v>4.8099119</v>
       </c>
       <c r="F16" t="n">
-        <v>52.3601162</v>
+        <v>52.35637</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(4.9257029, 52.3601162)</t>
+          <t>(4.8099119, 52.35637)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1216,41 +1216,41 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>POINT (4.9289422 52.3609314)</t>
+          <t>POINT (4.8018381 52.3524376)</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1503</v>
+        <v>1686</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dapperstraat</t>
+          <t>Hoekenes</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.9289422</v>
+        <v>4.8018381</v>
       </c>
       <c r="F17" t="n">
-        <v>52.3609314</v>
+        <v>52.3524376</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(4.9289422, 52.3609314)</t>
+          <t>(4.8018381, 52.3524376)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1265,41 +1265,41 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>POINT (4.9326128 52.3607965)</t>
+          <t>POINT (4.7944986 52.3509515)</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1341</v>
+        <v>1776</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
+          <t>Baden Powellweg</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.9326128</v>
+        <v>4.7944986</v>
       </c>
       <c r="F18" t="n">
-        <v>52.3607965</v>
+        <v>52.3509515</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(4.9326128, 52.3607965)</t>
+          <t>(4.7944986, 52.3509515)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1314,41 +1314,41 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>POINT (4.9336328 52.3611749)</t>
+          <t>POINT (4.7951129 52.3510417)</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>972</v>
+        <v>1618</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
+          <t>Baden Powellweg</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.9336328</v>
+        <v>4.7951129</v>
       </c>
       <c r="F19" t="n">
-        <v>52.3611749</v>
+        <v>52.3510417</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(4.9336328, 52.3611749)</t>
+          <t>(4.7951129, 52.3510417)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1363,41 +1363,41 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>POINT (4.9297575 52.3610986)</t>
+          <t>POINT (4.8025242 52.3525411)</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>1796</v>
+        <v>1619</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dapperstraat</t>
+          <t>Hoekenes</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.9297575</v>
+        <v>4.8025242</v>
       </c>
       <c r="F20" t="n">
-        <v>52.3610986</v>
+        <v>52.3525411</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(4.9297575, 52.3610986)</t>
+          <t>(4.8025242, 52.3525411)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1412,41 +1412,41 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>POINT (4.9249118 52.3599165)</t>
+          <t>POINT (4.8107529 52.3565093)</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1797</v>
+        <v>1535</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Linnaeusstraat</t>
+          <t>Meer en Vaart</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4.9249118</v>
+        <v>4.8107529</v>
       </c>
       <c r="F21" t="n">
-        <v>52.3599165</v>
+        <v>52.3565093</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(4.9249118, 52.3599165)</t>
+          <t>(4.8107529, 52.3565093)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1461,41 +1461,41 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>POINT (4.9172481 52.3582391)</t>
+          <t>POINT (4.8262383 52.3577873)</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>1794</v>
+        <v>1779</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Beukenweg</t>
+          <t>Johan Huizingalaan</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4.9172481</v>
+        <v>4.8262383</v>
       </c>
       <c r="F22" t="n">
-        <v>52.3582391</v>
+        <v>52.3577873</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(4.9172481, 52.3582391)</t>
+          <t>(4.8262383, 52.3577873)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1510,41 +1510,41 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17, 2</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 17, 2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>POINT (4.9141489 52.3624363)</t>
+          <t>POINT (4.834559 52.3578798)</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>1905</v>
+        <v>1533</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Korte 's-Gravesandestraat</t>
+          <t>Station Lelylaan</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.9141489</v>
+        <v>4.834559</v>
       </c>
       <c r="F23" t="n">
-        <v>52.3624363</v>
+        <v>52.3578798</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(4.9141489, 52.3624363)</t>
+          <t>(4.834559, 52.3578798)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1559,41 +1559,41 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1, 19, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1, 19, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>POINT (4.9091584 52.3614042)</t>
+          <t>POINT (4.8401257 52.3579358)</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>1581</v>
+        <v>1532</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
+          <t>Derkinderenstraat</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.9091584</v>
+        <v>4.8401257</v>
       </c>
       <c r="F24" t="n">
-        <v>52.3614042</v>
+        <v>52.3579358</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(4.9091584, 52.3614042)</t>
+          <t>(4.8401257, 52.3579358)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1608,41 +1608,41 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1, 19, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1, 19, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>POINT (4.9000102 52.3596835)</t>
+          <t>POINT (4.8521827 52.3580481)</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>1340</v>
+        <v>953</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
+          <t>Surinameplein</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.9000102</v>
+        <v>4.8521827</v>
       </c>
       <c r="F25" t="n">
-        <v>52.3596835</v>
+        <v>52.3580481</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(4.9000102, 52.3596835)</t>
+          <t>(4.8521827, 52.3580481)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1657,41 +1657,41 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1, 19, 4, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1, 19, 4, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>POINT (4.8925358 52.3594772)</t>
+          <t>POINT (4.8830722 52.3634714)</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>1874</v>
+        <v>1696</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
+          <t>Leidseplein</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4.8925358</v>
+        <v>4.8830722</v>
       </c>
       <c r="F26" t="n">
-        <v>52.3594772</v>
+        <v>52.3634714</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(4.8925358, 52.3594772)</t>
+          <t>(4.8830722, 52.3634714)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1, 19, 24, 7</t>
+          <t>1, 12, 19, 2, 5, 7</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1, 19, 24, 7</t>
+          <t>1, 12, 19, 2, 5, 7</t>
         </is>
       </c>
     </row>
@@ -1767,29 +1767,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>POINT (4.8830722 52.3634714)</t>
+          <t>POINT (4.8925358 52.3594772)</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>1696</v>
+        <v>1874</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Vijzelgracht</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.8830722</v>
+        <v>4.8925358</v>
       </c>
       <c r="F28" t="n">
-        <v>52.3634714</v>
+        <v>52.3594772</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(4.8830722, 52.3634714)</t>
+          <t>(4.8925358, 52.3594772)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1804,41 +1804,41 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1, 12, 19, 2, 5, 7</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1, 12, 19, 2, 5, 7</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>POINT (4.8521827 52.3580481)</t>
+          <t>POINT (4.9000102 52.3596835)</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>953</v>
+        <v>1340</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Surinameplein</t>
+          <t>Frederiksplein</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.8521827</v>
+        <v>4.9000102</v>
       </c>
       <c r="F29" t="n">
-        <v>52.3580481</v>
+        <v>52.3596835</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(4.8521827, 52.3580481)</t>
+          <t>(4.9000102, 52.3596835)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1853,41 +1853,41 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 4, 7</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 4, 7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POINT (4.8401257 52.3579358)</t>
+          <t>POINT (4.9091584 52.3614042)</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>1532</v>
+        <v>1581</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Derkinderenstraat</t>
+          <t>Weesperplein</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4.8401257</v>
+        <v>4.9091584</v>
       </c>
       <c r="F30" t="n">
-        <v>52.3579358</v>
+        <v>52.3614042</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(4.8401257, 52.3579358)</t>
+          <t>(4.9091584, 52.3614042)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1902,41 +1902,41 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 7</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>POINT (4.834559 52.3578798)</t>
+          <t>POINT (4.9141489 52.3624363)</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>1533</v>
+        <v>1905</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Station Lelylaan</t>
+          <t>Korte 's-Gravesandestraat</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.834559</v>
+        <v>4.9141489</v>
       </c>
       <c r="F31" t="n">
-        <v>52.3578798</v>
+        <v>52.3624363</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(4.834559, 52.3578798)</t>
+          <t>(4.9141489, 52.3624363)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1951,41 +1951,41 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 7</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>POINT (4.8262383 52.3577873)</t>
+          <t>POINT (4.9172481 52.3582391)</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>1779</v>
+        <v>1794</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Johan Huizingalaan</t>
+          <t>Beukenweg</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.8262383</v>
+        <v>4.9172481</v>
       </c>
       <c r="F32" t="n">
-        <v>52.3577873</v>
+        <v>52.3582391</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(4.8262383, 52.3577873)</t>
+          <t>(4.9172481, 52.3582391)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2000,41 +2000,41 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1, 17, 2</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1, 17, 2</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>POINT (4.8107529 52.3565093)</t>
+          <t>POINT (4.9249118 52.3599165)</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>1535</v>
+        <v>1797</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Meer en Vaart</t>
+          <t>Linnaeusstraat</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.8107529</v>
+        <v>4.9249118</v>
       </c>
       <c r="F33" t="n">
-        <v>52.3565093</v>
+        <v>52.3599165</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4.8107529, 52.3565093)</t>
+          <t>(4.9249118, 52.3599165)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2049,41 +2049,41 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>POINT (4.8025242 52.3525411)</t>
+          <t>POINT (4.9297575 52.3610986)</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>1619</v>
+        <v>1796</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hoekenes</t>
+          <t>Dapperstraat</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.8025242</v>
+        <v>4.9297575</v>
       </c>
       <c r="F34" t="n">
-        <v>52.3525411</v>
+        <v>52.3610986</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(4.8025242, 52.3525411)</t>
+          <t>(4.9297575, 52.3610986)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2098,41 +2098,41 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>POINT (4.7951129 52.3510417)</t>
+          <t>POINT (4.9336328 52.3611749)</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>1618</v>
+        <v>972</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Baden Powellweg</t>
+          <t>Muiderpoortstation</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.7951129</v>
+        <v>4.9336328</v>
       </c>
       <c r="F35" t="n">
-        <v>52.3510417</v>
+        <v>52.3611749</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(4.7951129, 52.3510417)</t>
+          <t>(4.9336328, 52.3611749)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2147,41 +2147,41 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>POINT (4.9063478 52.3464278)</t>
+          <t>POINT (4.8992878 52.3783193)</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>1774</v>
+        <v>1309</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4.9063478</v>
+        <v>4.8992878</v>
       </c>
       <c r="F36" t="n">
-        <v>52.3464278</v>
+        <v>52.3783193</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(4.9063478, 52.3464278)</t>
+          <t>(4.8992878, 52.3783193)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2196,41 +2196,41 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>POINT (4.8997164 52.3465631)</t>
+          <t>POINT (4.8930014 52.3758615)</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>1586</v>
+        <v>1682</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Waalstraat</t>
+          <t>Nieuwezijds Kolk</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.8997164</v>
+        <v>4.8930014</v>
       </c>
       <c r="F37" t="n">
-        <v>52.3465631</v>
+        <v>52.3758615</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(4.8997164, 52.3465631)</t>
+          <t>(4.8930014, 52.3758615)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2245,41 +2245,41 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 17, 2</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 17, 2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>POINT (4.8947303 52.3468163)</t>
+          <t>POINT (4.8908314 52.373751)</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>1885</v>
+        <v>1613</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
+          <t>Dam</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.8947303</v>
+        <v>4.8908314</v>
       </c>
       <c r="F38" t="n">
-        <v>52.3468163</v>
+        <v>52.373751</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(4.8947303, 52.3468163)</t>
+          <t>(4.8908314, 52.373751)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2294,41 +2294,41 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 4</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>POINT (4.8905961 52.3527058)</t>
+          <t>POINT (4.890644 52.3719008)</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>1768</v>
+        <v>1916</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>De Pijp</t>
+          <t>Paleisstraat</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4.8905961</v>
+        <v>4.890644</v>
       </c>
       <c r="F39" t="n">
-        <v>52.3527058</v>
+        <v>52.3719008</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(4.8905961, 52.3527058)</t>
+          <t>(4.890644, 52.3719008)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2343,41 +2343,41 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>12, 24, 3</t>
+          <t>12, 2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12, 24, 3</t>
+          <t>12, 2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>POINT (4.8820871 52.3531224)</t>
+          <t>POINT (4.8893427 52.3677188)</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>1504</v>
+        <v>1900</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Roelof Hartplein</t>
+          <t>Koningsplein</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4.8820871</v>
+        <v>4.8893427</v>
       </c>
       <c r="F40" t="n">
-        <v>52.3531224</v>
+        <v>52.3677188</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(4.8820871, 52.3531224)</t>
+          <t>(4.8893427, 52.3677188)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2392,41 +2392,41 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>12, 24, 3, 5</t>
+          <t>12, 2</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>12, 24, 3, 5</t>
+          <t>12, 2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>POINT (4.8798 52.3564107)</t>
+          <t>POINT (4.8863435 52.3659309)</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>1673</v>
+        <v>1578</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Concertgebouw</t>
+          <t>Keizersgracht</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4.8798</v>
+        <v>4.8863435</v>
       </c>
       <c r="F41" t="n">
-        <v>52.3564107</v>
+        <v>52.3659309</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(4.8798, 52.3564107)</t>
+          <t>(4.8863435, 52.3659309)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2441,41 +2441,41 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>12, 3, 5</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>12, 3, 5</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>POINT (4.8806042 52.3587143)</t>
+          <t>POINT (4.8843839 52.3650035)</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>1901</v>
+        <v>1577</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Museumplein</t>
+          <t>Prinsengracht</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.8806042</v>
+        <v>4.8843839</v>
       </c>
       <c r="F42" t="n">
-        <v>52.3587143</v>
+        <v>52.3650035</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(4.8806042, 52.3587143)</t>
+          <t>(4.8843839, 52.3650035)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2490,41 +2490,41 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>12, 2, 5</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>12, 2, 5</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>POINT (4.8843839 52.3650035)</t>
+          <t>POINT (4.8806042 52.3587143)</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>1577</v>
+        <v>1901</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Prinsengracht</t>
+          <t>Museumplein</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.8843839</v>
+        <v>4.8806042</v>
       </c>
       <c r="F43" t="n">
-        <v>52.3650035</v>
+        <v>52.3587143</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(4.8843839, 52.3650035)</t>
+          <t>(4.8806042, 52.3587143)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2539,41 +2539,41 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 2, 5</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 2, 5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>POINT (4.8863435 52.3659309)</t>
+          <t>POINT (4.8798 52.3564107)</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>1578</v>
+        <v>1673</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
+          <t>Concertgebouw</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.8863435</v>
+        <v>4.8798</v>
       </c>
       <c r="F44" t="n">
-        <v>52.3659309</v>
+        <v>52.3564107</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(4.8863435, 52.3659309)</t>
+          <t>(4.8798, 52.3564107)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2588,41 +2588,41 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 3, 5</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 3, 5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>POINT (4.8893427 52.3677188)</t>
+          <t>POINT (4.8820871 52.3531224)</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>1900</v>
+        <v>1504</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Koningsplein</t>
+          <t>Roelof Hartplein</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.8893427</v>
+        <v>4.8820871</v>
       </c>
       <c r="F45" t="n">
-        <v>52.3677188</v>
+        <v>52.3531224</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(4.8893427, 52.3677188)</t>
+          <t>(4.8820871, 52.3531224)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2637,41 +2637,41 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>12, 2</t>
+          <t>12, 24, 3, 5</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>12, 2</t>
+          <t>12, 24, 3, 5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>POINT (4.890644 52.3719008)</t>
+          <t>POINT (4.8905961 52.3527058)</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>1916</v>
+        <v>1768</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Paleisstraat</t>
+          <t>De Pijp</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.890644</v>
+        <v>4.8905961</v>
       </c>
       <c r="F46" t="n">
-        <v>52.3719008</v>
+        <v>52.3527058</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(4.890644, 52.3719008)</t>
+          <t>(4.8905961, 52.3527058)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2686,41 +2686,41 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>12, 2</t>
+          <t>12, 24, 3</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>12, 2</t>
+          <t>12, 24, 3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>POINT (4.8908314 52.373751)</t>
+          <t>POINT (4.8947303 52.3468163)</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>1613</v>
+        <v>1885</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dam</t>
+          <t>Maasstraat</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.8908314</v>
+        <v>4.8947303</v>
       </c>
       <c r="F47" t="n">
-        <v>52.373751</v>
+        <v>52.3468163</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(4.8908314, 52.373751)</t>
+          <t>(4.8947303, 52.3468163)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2735,41 +2735,41 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>POINT (4.8930014 52.3758615)</t>
+          <t>POINT (4.8997164 52.3465631)</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>1682</v>
+        <v>1586</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nieuwezijds Kolk</t>
+          <t>Waalstraat</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.8930014</v>
+        <v>4.8997164</v>
       </c>
       <c r="F48" t="n">
-        <v>52.3758615</v>
+        <v>52.3465631</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(4.8930014, 52.3758615)</t>
+          <t>(4.8997164, 52.3465631)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2784,41 +2784,41 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>12, 13, 17, 2</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>12, 13, 17, 2</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>POINT (4.8992878 52.3783193)</t>
+          <t>POINT (4.9063478 52.3464278)</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>1309</v>
+        <v>1774</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Victorieplein</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4.8992878</v>
+        <v>4.9063478</v>
       </c>
       <c r="F49" t="n">
-        <v>52.3783193</v>
+        <v>52.3464278</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(4.8992878, 52.3783193)</t>
+          <t>(4.9063478, 52.3464278)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2833,41 +2833,41 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>POINT (4.8988712 52.3786582)</t>
+          <t>POINT (4.9056743 52.3463657)</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>1886</v>
+        <v>1688</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Victorieplein</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.8988712</v>
+        <v>4.9056743</v>
       </c>
       <c r="F50" t="n">
-        <v>52.3786582</v>
+        <v>52.3463657</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(4.8988712, 52.3786582)</t>
+          <t>(4.9056743, 52.3463657)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2882,41 +2882,41 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>POINT (4.8934715 52.3761313)</t>
+          <t>POINT (4.9003351 52.3468171)</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>1681</v>
+        <v>1585</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Nieuwezijds Kolk</t>
+          <t>Waalstraat</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4.8934715</v>
+        <v>4.9003351</v>
       </c>
       <c r="F51" t="n">
-        <v>52.3761313</v>
+        <v>52.3468171</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(4.8934715, 52.3761313)</t>
+          <t>(4.9003351, 52.3468171)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2931,41 +2931,41 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>12, 13, 17, 2</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>12, 13, 17, 2</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>POINT (4.890657 52.372357)</t>
+          <t>POINT (4.8954127 52.3470662)</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>1755</v>
+        <v>1884</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Paleisstraat</t>
+          <t>Maasstraat</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4.890657</v>
+        <v>4.8954127</v>
       </c>
       <c r="F52" t="n">
-        <v>52.372357</v>
+        <v>52.3470662</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(4.890657, 52.372357)</t>
+          <t>(4.8954127, 52.3470662)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2980,41 +2980,41 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>12, 2</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>12, 2</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>POINT (4.8889206 52.368085)</t>
+          <t>POINT (4.8901771 52.3526769)</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>1742</v>
+        <v>1854</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Koningsplein</t>
+          <t>De Pijp</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4.8889206</v>
+        <v>4.8901771</v>
       </c>
       <c r="F53" t="n">
-        <v>52.368085</v>
+        <v>52.3526769</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(4.8889206, 52.368085)</t>
+          <t>(4.8901771, 52.3526769)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3029,41 +3029,41 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>12, 2</t>
+          <t>12, 24, 3</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>12, 2</t>
+          <t>12, 24, 3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>POINT (4.8865383 52.3659919)</t>
+          <t>POINT (4.8828562 52.3527563)</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>1781</v>
+        <v>1896</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
+          <t>Roelof Hartplein</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4.8865383</v>
+        <v>4.8828562</v>
       </c>
       <c r="F54" t="n">
-        <v>52.3659919</v>
+        <v>52.3527563</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(4.8865383, 52.3659919)</t>
+          <t>(4.8828562, 52.3527563)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3078,41 +3078,41 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 24, 3, 5</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 24, 3, 5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>POINT (4.8845404 52.3650457)</t>
+          <t>POINT (4.8796377 52.3566951)</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>1785</v>
+        <v>1505</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Prinsengracht</t>
+          <t>Concertgebouw</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4.8845404</v>
+        <v>4.8796377</v>
       </c>
       <c r="F55" t="n">
-        <v>52.3650457</v>
+        <v>52.3566951</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(4.8845404, 52.3650457)</t>
+          <t>(4.8796377, 52.3566951)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3127,41 +3127,41 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 3, 5</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 3, 5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>POINT (4.8829633 52.3642229)</t>
+          <t>POINT (4.8812446 52.358854)</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>1782</v>
+        <v>1539</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Museumplein</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4.8829633</v>
+        <v>4.8812446</v>
       </c>
       <c r="F56" t="n">
-        <v>52.3642229</v>
+        <v>52.358854</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(4.8829633, 52.3642229)</t>
+          <t>(4.8812446, 52.358854)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3176,41 +3176,41 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1, 12, 19, 2, 5, 7</t>
+          <t>12, 2, 5</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1, 12, 19, 2, 5, 7</t>
+          <t>12, 2, 5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>POINT (4.8812446 52.358854)</t>
+          <t>POINT (4.8829633 52.3642229)</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>1539</v>
+        <v>1782</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Museumplein</t>
+          <t>Leidseplein</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4.8812446</v>
+        <v>4.8829633</v>
       </c>
       <c r="F57" t="n">
-        <v>52.358854</v>
+        <v>52.3642229</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(4.8812446, 52.358854)</t>
+          <t>(4.8829633, 52.3642229)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3225,41 +3225,41 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>12, 2, 5</t>
+          <t>1, 12, 19, 2, 5, 7</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12, 2, 5</t>
+          <t>1, 12, 19, 2, 5, 7</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>POINT (4.8796377 52.3566951)</t>
+          <t>POINT (4.8845404 52.3650457)</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>1505</v>
+        <v>1785</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Concertgebouw</t>
+          <t>Prinsengracht</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4.8796377</v>
+        <v>4.8845404</v>
       </c>
       <c r="F58" t="n">
-        <v>52.3566951</v>
+        <v>52.3650457</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(4.8796377, 52.3566951)</t>
+          <t>(4.8845404, 52.3650457)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3274,41 +3274,41 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>12, 3, 5</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12, 3, 5</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>POINT (4.8828562 52.3527563)</t>
+          <t>POINT (4.8865383 52.3659919)</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>1896</v>
+        <v>1781</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Roelof Hartplein</t>
+          <t>Keizersgracht</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4.8828562</v>
+        <v>4.8865383</v>
       </c>
       <c r="F59" t="n">
-        <v>52.3527563</v>
+        <v>52.3659919</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(4.8828562, 52.3527563)</t>
+          <t>(4.8865383, 52.3659919)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3323,41 +3323,41 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>12, 24, 3, 5</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12, 24, 3, 5</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>POINT (4.8901771 52.3526769)</t>
+          <t>POINT (4.8889206 52.368085)</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>1854</v>
+        <v>1742</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>De Pijp</t>
+          <t>Koningsplein</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.8901771</v>
+        <v>4.8889206</v>
       </c>
       <c r="F60" t="n">
-        <v>52.3526769</v>
+        <v>52.368085</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(4.8901771, 52.3526769)</t>
+          <t>(4.8889206, 52.368085)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3372,41 +3372,41 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>12, 24, 3</t>
+          <t>12, 2</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12, 24, 3</t>
+          <t>12, 2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>POINT (4.8954127 52.3470662)</t>
+          <t>POINT (4.890657 52.372357)</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>1884</v>
+        <v>1755</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
+          <t>Paleisstraat</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4.8954127</v>
+        <v>4.890657</v>
       </c>
       <c r="F61" t="n">
-        <v>52.3470662</v>
+        <v>52.372357</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(4.8954127, 52.3470662)</t>
+          <t>(4.890657, 52.372357)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3421,41 +3421,41 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>POINT (4.9003351 52.3468171)</t>
+          <t>POINT (4.8934715 52.3761313)</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>1585</v>
+        <v>1681</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Waalstraat</t>
+          <t>Nieuwezijds Kolk</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.9003351</v>
+        <v>4.8934715</v>
       </c>
       <c r="F62" t="n">
-        <v>52.3468171</v>
+        <v>52.3761313</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(4.9003351, 52.3468171)</t>
+          <t>(4.8934715, 52.3761313)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3470,41 +3470,41 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 17, 2</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 17, 2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>POINT (4.9056743 52.3463657)</t>
+          <t>POINT (4.8988712 52.3786582)</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>1688</v>
+        <v>1886</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4.9056743</v>
+        <v>4.8988712</v>
       </c>
       <c r="F63" t="n">
-        <v>52.3463657</v>
+        <v>52.3786582</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(4.9056743, 52.3463657)</t>
+          <t>(4.8988712, 52.3786582)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3519,41 +3519,41 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>POINT (4.8350051 52.3732337)</t>
+          <t>POINT (4.8992178 52.378303)</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>1819</v>
+        <v>1305</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4.8350051</v>
+        <v>4.8992178</v>
       </c>
       <c r="F64" t="n">
-        <v>52.3732337</v>
+        <v>52.378303</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(4.8350051, 52.3732337)</t>
+          <t>(4.8992178, 52.378303)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3568,41 +3568,41 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>POINT (4.8507957 52.3701459)</t>
+          <t>POINT (4.8837739 52.3740565)</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>1639</v>
+        <v>1671</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Westermarkt</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.8507957</v>
+        <v>4.8837739</v>
       </c>
       <c r="F65" t="n">
-        <v>52.3701459</v>
+        <v>52.3740565</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(4.8507957, 52.3701459)</t>
+          <t>(4.8837739, 52.3740565)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3617,41 +3617,41 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>13, 7</t>
+          <t>13, 17</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>13, 7</t>
+          <t>13, 17</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>POINT (4.8600128 52.371502)</t>
+          <t>POINT (4.8763385 52.3723364)</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>1594</v>
+        <v>1662</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Admiraal De Ruijterweg</t>
+          <t>Marnixstraat</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.8600128</v>
+        <v>4.8763385</v>
       </c>
       <c r="F66" t="n">
-        <v>52.371502</v>
+        <v>52.3723364</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(4.8600128, 52.371502)</t>
+          <t>(4.8763385, 52.3723364)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3666,41 +3666,41 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>13, 19</t>
+          <t>13, 17</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>13, 19</t>
+          <t>13, 17</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>POINT (4.8636349 52.3706925)</t>
+          <t>POINT (4.8708148 52.3710541)</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>1595</v>
+        <v>1553</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Willem de Zwijgerlaan</t>
+          <t>Bilderdijkstraat</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4.8636349</v>
+        <v>4.8708148</v>
       </c>
       <c r="F67" t="n">
-        <v>52.3706925</v>
+        <v>52.3710541</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(4.8636349, 52.3706925)</t>
+          <t>(4.8708148, 52.3710541)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3715,41 +3715,41 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>13, 19</t>
+          <t>13, 17, 19, 7</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>13, 19</t>
+          <t>13, 17, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>POINT (4.8708148 52.3710541)</t>
+          <t>POINT (4.8636349 52.3706925)</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>1553</v>
+        <v>1595</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bilderdijkstraat</t>
+          <t>Willem de Zwijgerlaan</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.8708148</v>
+        <v>4.8636349</v>
       </c>
       <c r="F68" t="n">
-        <v>52.3710541</v>
+        <v>52.3706925</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(4.8708148, 52.3710541)</t>
+          <t>(4.8636349, 52.3706925)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3764,41 +3764,41 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>13, 17, 19, 7</t>
+          <t>13, 19</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>13, 17, 19, 7</t>
+          <t>13, 19</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>POINT (4.8763385 52.3723364)</t>
+          <t>POINT (4.8600128 52.371502)</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>1662</v>
+        <v>1594</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Marnixstraat</t>
+          <t>Admiraal De Ruijterweg</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.8763385</v>
+        <v>4.8600128</v>
       </c>
       <c r="F69" t="n">
-        <v>52.3723364</v>
+        <v>52.371502</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(4.8763385, 52.3723364)</t>
+          <t>(4.8600128, 52.371502)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3813,41 +3813,41 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>13, 17</t>
+          <t>13, 19</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>13, 17</t>
+          <t>13, 19</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>POINT (4.8837739 52.3740565)</t>
+          <t>POINT (4.8507957 52.3701459)</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>1671</v>
+        <v>1639</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Westermarkt</t>
+          <t>Mercatorplein</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.8837739</v>
+        <v>4.8507957</v>
       </c>
       <c r="F70" t="n">
-        <v>52.3740565</v>
+        <v>52.3701459</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(4.8837739, 52.3740565)</t>
+          <t>(4.8507957, 52.3701459)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3862,41 +3862,41 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>13, 17</t>
+          <t>13, 7</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>13, 17</t>
+          <t>13, 7</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>POINT (4.8992178 52.378303)</t>
+          <t>POINT (4.8350051 52.3732337)</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1305</v>
+        <v>1819</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.8992178</v>
+        <v>4.8350051</v>
       </c>
       <c r="F71" t="n">
-        <v>52.378303</v>
+        <v>52.3732337</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(4.8992178, 52.378303)</t>
+          <t>(4.8350051, 52.3732337)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3911,41 +3911,41 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>POINT (4.8988204 52.3786244)</t>
+          <t>POINT (4.8359077 52.3730297)</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>1912</v>
+        <v>1636</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4.8988204</v>
+        <v>4.8359077</v>
       </c>
       <c r="F72" t="n">
-        <v>52.3786244</v>
+        <v>52.3730297</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(4.8988204, 52.3786244)</t>
+          <t>(4.8359077, 52.3730297)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3960,41 +3960,41 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>POINT (4.8843359 52.3740143)</t>
+          <t>POINT (4.8514871 52.3702349)</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>1675</v>
+        <v>1820</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Westermarkt</t>
+          <t>Mercatorplein</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.8843359</v>
+        <v>4.8514871</v>
       </c>
       <c r="F73" t="n">
-        <v>52.3740143</v>
+        <v>52.3702349</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(4.8843359, 52.3740143)</t>
+          <t>(4.8514871, 52.3702349)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4009,41 +4009,41 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>13, 17</t>
+          <t>13, 7</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>13, 17</t>
+          <t>13, 7</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>POINT (4.8752838 52.3720538)</t>
+          <t>POINT (4.8604577 52.3713902)</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Marnixstraat</t>
+          <t>Admiraal De Ruijterweg</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4.8752838</v>
+        <v>4.8604577</v>
       </c>
       <c r="F74" t="n">
-        <v>52.3720538</v>
+        <v>52.3713902</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(4.8752838, 52.3720538)</t>
+          <t>(4.8604577, 52.3713902)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4058,41 +4058,41 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>13, 17</t>
+          <t>13, 19</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>13, 17</t>
+          <t>13, 19</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>POINT (4.8698359 52.3708243)</t>
+          <t>POINT (4.8641586 52.3704221)</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Bilderdijkstraat</t>
+          <t>Willem de Zwijgerlaan</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4.8698359</v>
+        <v>4.8641586</v>
       </c>
       <c r="F75" t="n">
-        <v>52.3708243</v>
+        <v>52.3704221</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(4.8698359, 52.3708243)</t>
+          <t>(4.8641586, 52.3704221)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4107,41 +4107,41 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>13, 17, 19, 7</t>
+          <t>13, 19</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>13, 17, 19, 7</t>
+          <t>13, 19</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>POINT (4.8641586 52.3704221)</t>
+          <t>POINT (4.8698359 52.3708243)</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Willem de Zwijgerlaan</t>
+          <t>Bilderdijkstraat</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.8641586</v>
+        <v>4.8698359</v>
       </c>
       <c r="F76" t="n">
-        <v>52.3704221</v>
+        <v>52.3708243</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(4.8641586, 52.3704221)</t>
+          <t>(4.8698359, 52.3708243)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4156,41 +4156,41 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>13, 19</t>
+          <t>13, 17, 19, 7</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>13, 19</t>
+          <t>13, 17, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>POINT (4.8604577 52.3713902)</t>
+          <t>POINT (4.8752838 52.3720538)</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Admiraal De Ruijterweg</t>
+          <t>Marnixstraat</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.8604577</v>
+        <v>4.8752838</v>
       </c>
       <c r="F77" t="n">
-        <v>52.3713902</v>
+        <v>52.3720538</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(4.8604577, 52.3713902)</t>
+          <t>(4.8752838, 52.3720538)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4205,41 +4205,41 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>13, 19</t>
+          <t>13, 17</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>13, 19</t>
+          <t>13, 17</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>POINT (4.8514871 52.3702349)</t>
+          <t>POINT (4.8843359 52.3740143)</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>1820</v>
+        <v>1675</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Westermarkt</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4.8514871</v>
+        <v>4.8843359</v>
       </c>
       <c r="F78" t="n">
-        <v>52.3702349</v>
+        <v>52.3740143</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(4.8514871, 52.3702349)</t>
+          <t>(4.8843359, 52.3740143)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4254,41 +4254,41 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>13, 7</t>
+          <t>13, 17</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>13, 7</t>
+          <t>13, 17</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>POINT (4.8359077 52.3730297)</t>
+          <t>POINT (4.8988204 52.3786244)</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>1636</v>
+        <v>1912</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4.8359077</v>
+        <v>4.8988204</v>
       </c>
       <c r="F79" t="n">
-        <v>52.3730297</v>
+        <v>52.3786244</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(4.8359077, 52.3730297)</t>
+          <t>(4.8988204, 52.3786244)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4303,41 +4303,41 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>POINT (4.9520639 52.3652037)</t>
+          <t>POINT (4.9003629 52.3778505)</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>292</v>
+        <v>676</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Flevopark</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.9520639</v>
+        <v>4.9003629</v>
       </c>
       <c r="F80" t="n">
-        <v>52.3652037</v>
+        <v>52.3778505</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(4.9520639, 52.3652037)</t>
+          <t>(4.9003629, 52.3778505)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4352,41 +4352,41 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>POINT (4.9478662 52.3649431)</t>
+          <t>POINT (4.8936441 52.3735332)</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>1804</v>
+        <v>1502</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Insulindeweg</t>
+          <t>Dam</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4.9478662</v>
+        <v>4.8936441</v>
       </c>
       <c r="F81" t="n">
-        <v>52.3649431</v>
+        <v>52.3735332</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(4.9478662, 52.3649431)</t>
+          <t>(4.8936441, 52.3735332)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4401,41 +4401,41 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>12, 13, 14, 17, 2, 24, 4</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>12, 13, 14, 17, 2, 24, 4</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>POINT (4.9433884 52.3621442)</t>
+          <t>POINT (4.8921252 52.3694572)</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>1805</v>
+        <v>1715</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Soembawastraat</t>
+          <t>Rokin</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4.9433884</v>
+        <v>4.8921252</v>
       </c>
       <c r="F82" t="n">
-        <v>52.3621442</v>
+        <v>52.3694572</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(4.9433884, 52.3621442)</t>
+          <t>(4.8921252, 52.3694572)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4450,41 +4450,41 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>14, 24, 4</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>14, 24, 4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>POINT (4.9405051 52.3617404)</t>
+          <t>POINT (4.8968199 52.3662292)</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>1695</v>
+        <v>1756</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
+          <t>Rembrandtplein</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.9405051</v>
+        <v>4.8968199</v>
       </c>
       <c r="F83" t="n">
-        <v>52.3617404</v>
+        <v>52.3662292</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(4.9405051, 52.3617404)</t>
+          <t>(4.8968199, 52.3662292)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>14, 4</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>14, 4</t>
         </is>
       </c>
     </row>
@@ -4560,29 +4560,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>POINT (4.8968199 52.3662292)</t>
+          <t>POINT (4.9405051 52.3617404)</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>1756</v>
+        <v>1695</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Rembrandtplein</t>
+          <t>Molukkenstraat</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4.8968199</v>
+        <v>4.9405051</v>
       </c>
       <c r="F85" t="n">
-        <v>52.3662292</v>
+        <v>52.3617404</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(4.8968199, 52.3662292)</t>
+          <t>(4.9405051, 52.3617404)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4597,41 +4597,41 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>14, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>14, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>POINT (4.8921252 52.3694572)</t>
+          <t>POINT (4.9433884 52.3621442)</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>1715</v>
+        <v>1805</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Rokin</t>
+          <t>Soembawastraat</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4.8921252</v>
+        <v>4.9433884</v>
       </c>
       <c r="F86" t="n">
-        <v>52.3694572</v>
+        <v>52.3621442</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(4.8921252, 52.3694572)</t>
+          <t>(4.9433884, 52.3621442)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4646,41 +4646,41 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>14, 24, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>14, 24, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>POINT (4.8936441 52.3735332)</t>
+          <t>POINT (4.9478662 52.3649431)</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>1502</v>
+        <v>1804</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Dam</t>
+          <t>Insulindeweg</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4.8936441</v>
+        <v>4.9478662</v>
       </c>
       <c r="F87" t="n">
-        <v>52.3735332</v>
+        <v>52.3649431</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(4.8936441, 52.3735332)</t>
+          <t>(4.9478662, 52.3649431)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4695,41 +4695,41 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>POINT (4.9003629 52.3778505)</t>
+          <t>POINT (4.9520639 52.3652037)</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>676</v>
+        <v>292</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Flevopark</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4.9003629</v>
+        <v>4.9520639</v>
       </c>
       <c r="F88" t="n">
-        <v>52.3778505</v>
+        <v>52.3652037</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(4.9003629, 52.3778505)</t>
+          <t>(4.9520639, 52.3652037)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4744,41 +4744,41 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>POINT (4.9009806 52.3777485)</t>
+          <t>POINT (4.9510568 52.3652467)</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>1909</v>
+        <v>1170</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Flevopark</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.9009806</v>
+        <v>4.9510568</v>
       </c>
       <c r="F89" t="n">
-        <v>52.3777485</v>
+        <v>52.3652467</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(4.9009806, 52.3777485)</t>
+          <t>(4.9510568, 52.3652467)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4793,41 +4793,41 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>POINT (4.8953791 52.3748676)</t>
+          <t>POINT (4.9476342 52.3647569)</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>1714</v>
+        <v>1609</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Dam</t>
+          <t>Insulindeweg</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>4.8953791</v>
+        <v>4.9476342</v>
       </c>
       <c r="F90" t="n">
-        <v>52.3748676</v>
+        <v>52.3647569</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(4.8953791, 52.3748676)</t>
+          <t>(4.9476342, 52.3647569)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4842,41 +4842,41 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>POINT (4.892274 52.3697221)</t>
+          <t>POINT (4.9441018 52.3622746)</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>1716</v>
+        <v>1610</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Rokin</t>
+          <t>Soembawastraat</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4.892274</v>
+        <v>4.9441018</v>
       </c>
       <c r="F91" t="n">
-        <v>52.3697221</v>
+        <v>52.3622746</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(4.892274, 52.3697221)</t>
+          <t>(4.9441018, 52.3622746)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4891,41 +4891,41 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>14, 24, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>14, 24, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>POINT (4.8964238 52.3662601)</t>
+          <t>POINT (4.9401785 52.3617259)</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>1717</v>
+        <v>1611</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Rembrandtplein</t>
+          <t>Molukkenstraat</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4.8964238</v>
+        <v>4.9401785</v>
       </c>
       <c r="F92" t="n">
-        <v>52.3662601</v>
+        <v>52.3617259</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(4.8964238, 52.3662601)</t>
+          <t>(4.9401785, 52.3617259)</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>14, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>14, 4</t>
+          <t>14, 3</t>
         </is>
       </c>
     </row>
@@ -5001,29 +5001,29 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>POINT (4.9401785 52.3617259)</t>
+          <t>POINT (4.8964238 52.3662601)</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>1611</v>
+        <v>1717</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
+          <t>Rembrandtplein</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4.9401785</v>
+        <v>4.8964238</v>
       </c>
       <c r="F94" t="n">
-        <v>52.3617259</v>
+        <v>52.3662601</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(4.9401785, 52.3617259)</t>
+          <t>(4.8964238, 52.3662601)</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5038,41 +5038,41 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>14, 4</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>14, 4</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>POINT (4.9441018 52.3622746)</t>
+          <t>POINT (4.892274 52.3697221)</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>1610</v>
+        <v>1716</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Soembawastraat</t>
+          <t>Rokin</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.9441018</v>
+        <v>4.892274</v>
       </c>
       <c r="F95" t="n">
-        <v>52.3622746</v>
+        <v>52.3697221</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(4.9441018, 52.3622746)</t>
+          <t>(4.892274, 52.3697221)</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5087,41 +5087,41 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>14, 24, 4</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>14, 24, 4</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>POINT (4.9476342 52.3647569)</t>
+          <t>POINT (4.8953791 52.3748676)</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>1609</v>
+        <v>1714</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Insulindeweg</t>
+          <t>Dam</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4.9476342</v>
+        <v>4.8953791</v>
       </c>
       <c r="F96" t="n">
-        <v>52.3647569</v>
+        <v>52.3748676</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(4.9476342, 52.3647569)</t>
+          <t>(4.8953791, 52.3748676)</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5136,41 +5136,41 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>12, 13, 14, 17, 2, 24, 4</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>12, 13, 14, 17, 2, 24, 4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>POINT (4.9510568 52.3652467)</t>
+          <t>POINT (4.9009806 52.3777485)</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>1170</v>
+        <v>1909</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Flevopark</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4.9510568</v>
+        <v>4.9009806</v>
       </c>
       <c r="F97" t="n">
-        <v>52.3652467</v>
+        <v>52.3777485</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(4.9510568, 52.3652467)</t>
+          <t>(4.9009806, 52.3777485)</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5185,41 +5185,41 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>14, 3</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>POINT (4.7913 52.3564413)</t>
+          <t>POINT (4.8991546 52.3782813)</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>1621</v>
+        <v>1312</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Baden Powellweg</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.7913</v>
+        <v>4.8991546</v>
       </c>
       <c r="F98" t="n">
-        <v>52.3564413</v>
+        <v>52.3782813</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(4.7913, 52.3564413)</t>
+          <t>(4.8991546, 52.3782813)</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5234,41 +5234,41 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>POINT (4.7990044 52.3579858)</t>
+          <t>POINT (4.8768971 52.368541)</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>1622</v>
+        <v>1666</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Hoekenes</t>
+          <t>Elandsgracht</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4.7990044</v>
+        <v>4.8768971</v>
       </c>
       <c r="F99" t="n">
-        <v>52.3579858</v>
+        <v>52.368541</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(4.7990044, 52.3579858)</t>
+          <t>(4.8768971, 52.368541)</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5283,41 +5283,41 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>17, 19, 5, 7</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>17, 19, 5, 7</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>POINT (4.8531487 52.3638557)</t>
+          <t>POINT (4.8725518 52.3673632)</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>1828</v>
+        <v>1710</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Postjesweg</t>
+          <t>Bilderdijkstraat</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4.8531487</v>
+        <v>4.8725518</v>
       </c>
       <c r="F100" t="n">
-        <v>52.3638557</v>
+        <v>52.3673632</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>(4.8531487, 52.3638557)</t>
+          <t>(4.8725518, 52.3673632)</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5332,41 +5332,41 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>17, 7</t>
+          <t>13, 17, 19, 7</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>17, 7</t>
+          <t>13, 17, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>POINT (4.8586095 52.3647872)</t>
+          <t>POINT (4.8656891 52.3655426)</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>1801</v>
+        <v>1626</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Witte de Withstraat</t>
+          <t>Nicolaas Beetsstraat</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4.8586095</v>
+        <v>4.8656891</v>
       </c>
       <c r="F101" t="n">
-        <v>52.3647872</v>
+        <v>52.3655426</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(4.8586095, 52.3647872)</t>
+          <t>(4.8656891, 52.3655426)</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5393,29 +5393,29 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>POINT (4.8656891 52.3655426)</t>
+          <t>POINT (4.8586095 52.3647872)</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>1626</v>
+        <v>1801</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Nicolaas Beetsstraat</t>
+          <t>Witte de Withstraat</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4.8656891</v>
+        <v>4.8586095</v>
       </c>
       <c r="F102" t="n">
-        <v>52.3655426</v>
+        <v>52.3647872</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>(4.8656891, 52.3655426)</t>
+          <t>(4.8586095, 52.3647872)</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5442,29 +5442,29 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>POINT (4.8725518 52.3673632)</t>
+          <t>POINT (4.8531487 52.3638557)</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>1710</v>
+        <v>1828</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Bilderdijkstraat</t>
+          <t>Postjesweg</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4.8725518</v>
+        <v>4.8531487</v>
       </c>
       <c r="F103" t="n">
-        <v>52.3673632</v>
+        <v>52.3638557</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>(4.8725518, 52.3673632)</t>
+          <t>(4.8531487, 52.3638557)</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5479,41 +5479,41 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>13, 17, 19, 7</t>
+          <t>17, 7</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>13, 17, 19, 7</t>
+          <t>17, 7</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>POINT (4.8768971 52.368541)</t>
+          <t>POINT (4.7990044 52.3579858)</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>1666</v>
+        <v>1622</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
+          <t>Hoekenes</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4.8768971</v>
+        <v>4.7990044</v>
       </c>
       <c r="F104" t="n">
-        <v>52.368541</v>
+        <v>52.3579858</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>(4.8768971, 52.368541)</t>
+          <t>(4.7990044, 52.3579858)</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5528,41 +5528,41 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>17, 19, 5, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>17, 19, 5, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>POINT (4.8991546 52.3782813)</t>
+          <t>POINT (4.7913 52.3564413)</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>1312</v>
+        <v>1621</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Baden Powellweg</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4.8991546</v>
+        <v>4.7913</v>
       </c>
       <c r="F105" t="n">
-        <v>52.3782813</v>
+        <v>52.3564413</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>(4.8991546, 52.3782813)</t>
+          <t>(4.7913, 52.3564413)</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5577,41 +5577,41 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>POINT (4.8987647 52.3785952)</t>
+          <t>POINT (4.7917476 52.3565018)</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>1911</v>
+        <v>1824</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Baden Powellweg</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4.8987647</v>
+        <v>4.7917476</v>
       </c>
       <c r="F106" t="n">
-        <v>52.3785952</v>
+        <v>52.3565018</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>(4.8987647, 52.3785952)</t>
+          <t>(4.7917476, 52.3565018)</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5626,41 +5626,41 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>POINT (4.8775579 52.3695272)</t>
+          <t>POINT (4.7995659 52.3580714)</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>1653</v>
+        <v>1826</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
+          <t>Hoekenes</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4.8775579</v>
+        <v>4.7995659</v>
       </c>
       <c r="F107" t="n">
-        <v>52.3695272</v>
+        <v>52.3580714</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>(4.8775579, 52.3695272)</t>
+          <t>(4.7995659, 52.3580714)</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5675,41 +5675,41 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>17, 19, 5, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>17, 19, 5, 7</t>
+          <t>1, 17</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>POINT (4.875944 52.3718196)</t>
+          <t>POINT (4.853975 52.3642479)</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>1236</v>
+        <v>1892</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Rozengracht</t>
+          <t>Hoofdweg</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4.875944</v>
+        <v>4.853975</v>
       </c>
       <c r="F108" t="n">
-        <v>52.3718196</v>
+        <v>52.3642479</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>(4.875944, 52.3718196)</t>
+          <t>(4.853975, 52.3642479)</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5724,41 +5724,41 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>17, 5</t>
+          <t>17, 7</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>17, 5</t>
+          <t>17, 7</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>POINT (4.8717631 52.3671254)</t>
+          <t>POINT (4.8591799 52.3648019)</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Bilderdijkstraat</t>
+          <t>Witte de Withstraat</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4.8717631</v>
+        <v>4.8591799</v>
       </c>
       <c r="F109" t="n">
-        <v>52.3671254</v>
+        <v>52.3648019</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>(4.8717631, 52.3671254)</t>
+          <t>(4.8591799, 52.3648019)</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5773,12 +5773,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>13, 17, 19, 7</t>
+          <t>17, 7</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>13, 17, 19, 7</t>
+          <t>17, 7</t>
         </is>
       </c>
     </row>
@@ -5834,29 +5834,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>POINT (4.8591799 52.3648019)</t>
+          <t>POINT (4.8717631 52.3671254)</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Witte de Withstraat</t>
+          <t>Bilderdijkstraat</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4.8591799</v>
+        <v>4.8717631</v>
       </c>
       <c r="F111" t="n">
-        <v>52.3648019</v>
+        <v>52.3671254</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>(4.8591799, 52.3648019)</t>
+          <t>(4.8717631, 52.3671254)</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5871,41 +5871,41 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>17, 7</t>
+          <t>13, 17, 19, 7</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>17, 7</t>
+          <t>13, 17, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>POINT (4.853975 52.3642479)</t>
+          <t>POINT (4.875944 52.3718196)</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>1892</v>
+        <v>1236</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Hoofdweg</t>
+          <t>Rozengracht</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4.853975</v>
+        <v>4.875944</v>
       </c>
       <c r="F112" t="n">
-        <v>52.3642479</v>
+        <v>52.3718196</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>(4.853975, 52.3642479)</t>
+          <t>(4.875944, 52.3718196)</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5920,41 +5920,41 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>17, 7</t>
+          <t>17, 5</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>17, 7</t>
+          <t>17, 5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>POINT (4.7995659 52.3580714)</t>
+          <t>POINT (4.8775579 52.3695272)</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>1826</v>
+        <v>1653</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Hoekenes</t>
+          <t>Elandsgracht</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.7995659</v>
+        <v>4.8775579</v>
       </c>
       <c r="F113" t="n">
-        <v>52.3580714</v>
+        <v>52.3695272</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>(4.7995659, 52.3580714)</t>
+          <t>(4.8775579, 52.3695272)</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5969,41 +5969,41 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>17, 19, 5, 7</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>17, 19, 5, 7</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>POINT (4.7917476 52.3565018)</t>
+          <t>POINT (4.8987647 52.3785952)</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>1824</v>
+        <v>1911</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Baden Powellweg</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4.7917476</v>
+        <v>4.8987647</v>
       </c>
       <c r="F114" t="n">
-        <v>52.3565018</v>
+        <v>52.3785952</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>(4.7917476, 52.3565018)</t>
+          <t>(4.8987647, 52.3785952)</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6018,41 +6018,41 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>1, 17</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>POINT (4.8784804 52.3681689)</t>
+          <t>POINT (4.8586427 52.3743002)</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>1664</v>
+        <v>1593</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4.8784804</v>
+        <v>4.8586427</v>
       </c>
       <c r="F115" t="n">
-        <v>52.3681689</v>
+        <v>52.3743002</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>(4.8784804, 52.3681689)</t>
+          <t>(4.8586427, 52.3743002)</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6067,12 +6067,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>17, 19, 5, 7</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>17, 19, 5, 7</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
     </row>
@@ -6128,29 +6128,29 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>POINT (4.8586427 52.3743002)</t>
+          <t>POINT (4.8784804 52.3681689)</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>1593</v>
+        <v>1664</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Elandsgracht</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4.8586427</v>
+        <v>4.8784804</v>
       </c>
       <c r="F117" t="n">
-        <v>52.3743002</v>
+        <v>52.3681689</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>(4.8586427, 52.3743002)</t>
+          <t>(4.8784804, 52.3681689)</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -6165,41 +6165,41 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>17, 19, 5, 7</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>17, 19, 5, 7</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>POINT (4.8584711 52.3751323)</t>
+          <t>POINT (4.8806933 52.3646825)</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>1592</v>
+        <v>1700</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Leidseplein</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4.8584711</v>
+        <v>4.8806933</v>
       </c>
       <c r="F118" t="n">
-        <v>52.3751323</v>
+        <v>52.3646825</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>(4.8584711, 52.3751323)</t>
+          <t>(4.8806933, 52.3646825)</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>1, 12, 19, 2, 5, 7</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>1, 12, 19, 2, 5, 7</t>
         </is>
       </c>
     </row>
@@ -6275,29 +6275,29 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>POINT (4.8806933 52.3646825)</t>
+          <t>POINT (4.8584711 52.3751323)</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>1700</v>
+        <v>1592</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4.8806933</v>
+        <v>4.8584711</v>
       </c>
       <c r="F120" t="n">
-        <v>52.3646825</v>
+        <v>52.3751323</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>(4.8806933, 52.3646825)</t>
+          <t>(4.8584711, 52.3751323)</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6312,41 +6312,41 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>1, 12, 19, 2, 5, 7</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>1, 12, 19, 2, 5, 7</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>POINT (4.8274406 52.349218)</t>
+          <t>POINT (4.8993575 52.3783416)</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>1657</v>
+        <v>1310</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Johan Huizingalaan</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4.8274406</v>
+        <v>4.8993575</v>
       </c>
       <c r="F121" t="n">
-        <v>52.349218</v>
+        <v>52.3783416</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>(4.8274406, 52.349218)</t>
+          <t>(4.8993575, 52.3783416)</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6361,12 +6361,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>1, 17, 2</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>1, 17, 2</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
@@ -6422,29 +6422,29 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>POINT (4.8993575 52.3783416)</t>
+          <t>POINT (4.8274406 52.349218)</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>1310</v>
+        <v>1657</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Johan Huizingalaan</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4.8993575</v>
+        <v>4.8274406</v>
       </c>
       <c r="F123" t="n">
-        <v>52.3783416</v>
+        <v>52.349218</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>(4.8993575, 52.3783416)</t>
+          <t>(4.8274406, 52.349218)</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6459,41 +6459,41 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>1, 17, 2</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>1, 17, 2</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>POINT (4.8560802 52.3513581)</t>
+          <t>POINT (4.8275024 52.3491038)</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>1679</v>
+        <v>1655</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Johan Huizingalaan</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4.8560802</v>
+        <v>4.8275024</v>
       </c>
       <c r="F124" t="n">
-        <v>52.3513581</v>
+        <v>52.3491038</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>(4.8560802, 52.3513581)</t>
+          <t>(4.8275024, 52.3491038)</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6508,41 +6508,41 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2, 24</t>
+          <t>1, 17, 2</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>2, 24</t>
+          <t>1, 17, 2</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>POINT (4.8275024 52.3491038)</t>
+          <t>POINT (4.8560802 52.3513581)</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>1655</v>
+        <v>1679</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Johan Huizingalaan</t>
+          <t>Amstelveenseweg</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4.8275024</v>
+        <v>4.8560802</v>
       </c>
       <c r="F125" t="n">
-        <v>52.3491038</v>
+        <v>52.3513581</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>(4.8275024, 52.3491038)</t>
+          <t>(4.8560802, 52.3513581)</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6557,41 +6557,41 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>1, 17, 2</t>
+          <t>2, 24</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>1, 17, 2</t>
+          <t>2, 24</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>POINT (4.8572486 52.338422)</t>
+          <t>POINT (4.9003819 52.3778942)</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>1647</v>
+        <v>491</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.8572486</v>
+        <v>4.9003819</v>
       </c>
       <c r="F126" t="n">
-        <v>52.338422</v>
+        <v>52.3778942</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>(4.8572486, 52.338422)</t>
+          <t>(4.9003819, 52.3778942)</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6606,41 +6606,41 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>2, 24</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2, 24</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>POINT (4.8768834 52.3471425)</t>
+          <t>POINT (4.8909623 52.3599031)</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>1799</v>
+        <v>1518</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Stadionweg</t>
+          <t>Vijzelgracht</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4.8768834</v>
+        <v>4.8909623</v>
       </c>
       <c r="F127" t="n">
-        <v>52.3471425</v>
+        <v>52.3599031</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>(4.8768834, 52.3471425)</t>
+          <t>(4.8909623, 52.3599031)</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6655,12 +6655,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>24, 5</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>24, 5</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
     </row>
@@ -6716,29 +6716,29 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>POINT (4.8909623 52.3599031)</t>
+          <t>POINT (4.8768834 52.3471425)</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>1518</v>
+        <v>1799</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
+          <t>Stadionweg</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4.8909623</v>
+        <v>4.8768834</v>
       </c>
       <c r="F129" t="n">
-        <v>52.3599031</v>
+        <v>52.3471425</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>(4.8909623, 52.3599031)</t>
+          <t>(4.8768834, 52.3471425)</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6753,41 +6753,41 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>1, 19, 24, 7</t>
+          <t>24, 5</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>1, 19, 24, 7</t>
+          <t>24, 5</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>POINT (4.9003819 52.3778942)</t>
+          <t>POINT (4.8572486 52.338422)</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>491</v>
+        <v>1647</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amstelveenseweg</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4.9003819</v>
+        <v>4.8572486</v>
       </c>
       <c r="F130" t="n">
-        <v>52.3778942</v>
+        <v>52.338422</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>(4.9003819, 52.3778942)</t>
+          <t>(4.8572486, 52.338422)</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6802,41 +6802,41 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>2, 24</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>2, 24</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>POINT (4.9009723 52.3777976)</t>
+          <t>POINT (4.857301 52.3382323)</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>1910</v>
+        <v>1648</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amstelveenseweg</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4.9009723</v>
+        <v>4.857301</v>
       </c>
       <c r="F131" t="n">
-        <v>52.3777976</v>
+        <v>52.3382323</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>(4.9009723, 52.3777976)</t>
+          <t>(4.857301, 52.3382323)</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6851,41 +6851,41 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>2, 24</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>2, 24</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>POINT (4.8910303 52.3600132)</t>
+          <t>POINT (4.8771911 52.3488198)</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>1719</v>
+        <v>1556</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Vijzelgracht</t>
+          <t>Gerrit van der Veenstraat</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4.8910303</v>
+        <v>4.8771911</v>
       </c>
       <c r="F132" t="n">
-        <v>52.3600132</v>
+        <v>52.3488198</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>(4.8910303, 52.3600132)</t>
+          <t>(4.8771911, 52.3488198)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6900,12 +6900,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>1, 19, 24, 7</t>
+          <t>24, 5</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>1, 19, 24, 7</t>
+          <t>24, 5</t>
         </is>
       </c>
     </row>
@@ -6961,29 +6961,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>POINT (4.8771911 52.3488198)</t>
+          <t>POINT (4.8910303 52.3600132)</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>2</v>
       </c>
       <c r="C134" t="n">
-        <v>1556</v>
+        <v>1719</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Gerrit van der Veenstraat</t>
+          <t>Vijzelgracht</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4.8771911</v>
+        <v>4.8910303</v>
       </c>
       <c r="F134" t="n">
-        <v>52.3488198</v>
+        <v>52.3600132</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>(4.8771911, 52.3488198)</t>
+          <t>(4.8910303, 52.3600132)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6998,41 +6998,41 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>24, 5</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>24, 5</t>
+          <t>1, 19, 24, 7</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>POINT (4.857301 52.3382323)</t>
+          <t>POINT (4.9009723 52.3777976)</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>1648</v>
+        <v>1910</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>4.857301</v>
+        <v>4.9009723</v>
       </c>
       <c r="F135" t="n">
-        <v>52.3382323</v>
+        <v>52.3777976</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>(4.857301, 52.3382323)</t>
+          <t>(4.9009723, 52.3777976)</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7047,41 +7047,41 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>2, 24</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2, 24</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>POINT (4.8739688 52.3408227)</t>
+          <t>POINT (4.8718747 52.3029279)</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>1432</v>
+        <v>1703</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Station Zuid</t>
+          <t>Oranjebaan</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>4.8739688</v>
+        <v>4.8718747</v>
       </c>
       <c r="F136" t="n">
-        <v>52.3408227</v>
+        <v>52.3029279</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>(4.8739688, 52.3408227)</t>
+          <t>(4.8718747, 52.3029279)</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7108,29 +7108,29 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>POINT (4.8687365 52.3380116)</t>
+          <t>POINT (4.8725929 52.3080875)</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>90</v>
+        <v>1844</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Parnassusweg</t>
+          <t>Onderuit</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4.8687365</v>
+        <v>4.8725929</v>
       </c>
       <c r="F137" t="n">
-        <v>52.3380116</v>
+        <v>52.3080875</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>(4.8687365, 52.3380116)</t>
+          <t>(4.8725929, 52.3080875)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7157,29 +7157,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>POINT (4.8688734 52.3329804)</t>
+          <t>POINT (4.8722618 52.3121859)</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>1702</v>
+        <v>1846</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>A. J. Ernststraat</t>
+          <t>Zonnestein</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4.8688734</v>
+        <v>4.8722618</v>
       </c>
       <c r="F138" t="n">
-        <v>52.3329804</v>
+        <v>52.3121859</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>(4.8688734, 52.3329804)</t>
+          <t>(4.8722618, 52.3121859)</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7206,29 +7206,29 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>POINT (4.8690319 52.3248972)</t>
+          <t>POINT (4.8706118 52.3160769)</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>1845</v>
+        <v>1880</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Van Boshuizenstraat</t>
+          <t>Kronenburg</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4.8690319</v>
+        <v>4.8706118</v>
       </c>
       <c r="F139" t="n">
-        <v>52.3248972</v>
+        <v>52.3160769</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>(4.8690319, 52.3248972)</t>
+          <t>(4.8706118, 52.3160769)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7304,29 +7304,29 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>POINT (4.8706118 52.3160769)</t>
+          <t>POINT (4.8690319 52.3248972)</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>2</v>
       </c>
       <c r="C141" t="n">
-        <v>1880</v>
+        <v>1845</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Kronenburg</t>
+          <t>Van Boshuizenstraat</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>4.8706118</v>
+        <v>4.8690319</v>
       </c>
       <c r="F141" t="n">
-        <v>52.3160769</v>
+        <v>52.3248972</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>(4.8706118, 52.3160769)</t>
+          <t>(4.8690319, 52.3248972)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7353,29 +7353,29 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>POINT (4.8722618 52.3121859)</t>
+          <t>POINT (4.8688734 52.3329804)</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>2</v>
       </c>
       <c r="C142" t="n">
-        <v>1846</v>
+        <v>1702</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Zonnestein</t>
+          <t>A. J. Ernststraat</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4.8722618</v>
+        <v>4.8688734</v>
       </c>
       <c r="F142" t="n">
-        <v>52.3121859</v>
+        <v>52.3329804</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>(4.8722618, 52.3121859)</t>
+          <t>(4.8688734, 52.3329804)</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7402,29 +7402,29 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>POINT (4.8725929 52.3080875)</t>
+          <t>POINT (4.8687365 52.3380116)</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>1844</v>
+        <v>90</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Onderuit</t>
+          <t>Parnassusweg</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.8725929</v>
+        <v>4.8687365</v>
       </c>
       <c r="F143" t="n">
-        <v>52.3080875</v>
+        <v>52.3380116</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>(4.8725929, 52.3080875)</t>
+          <t>(4.8687365, 52.3380116)</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7451,29 +7451,29 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>POINT (4.8718747 52.3029279)</t>
+          <t>POINT (4.8739688 52.3408227)</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>1703</v>
+        <v>1432</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Oranjebaan</t>
+          <t>Station Zuid</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>4.8718747</v>
+        <v>4.8739688</v>
       </c>
       <c r="F144" t="n">
-        <v>52.3029279</v>
+        <v>52.3408227</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>(4.8718747, 52.3029279)</t>
+          <t>(4.8739688, 52.3408227)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7500,29 +7500,29 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>POINT (4.8716334 52.3027943)</t>
+          <t>POINT (4.8731849 52.3408165)</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>1519</v>
+        <v>200</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Oranjebaan</t>
+          <t>Station Zuid</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>4.8716334</v>
+        <v>4.8731849</v>
       </c>
       <c r="F145" t="n">
-        <v>52.3027943</v>
+        <v>52.3408165</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>(4.8716334, 52.3027943)</t>
+          <t>(4.8731849, 52.3408165)</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7549,29 +7549,29 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>POINT (4.8724478 52.3079604)</t>
+          <t>POINT (4.8686793 52.3382075)</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>2</v>
       </c>
       <c r="C146" t="n">
-        <v>1843</v>
+        <v>1543</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Onderuit</t>
+          <t>Parnassusweg</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4.8724478</v>
+        <v>4.8686793</v>
       </c>
       <c r="F146" t="n">
-        <v>52.3079604</v>
+        <v>52.3382075</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>(4.8724478, 52.3079604)</t>
+          <t>(4.8686793, 52.3382075)</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7598,29 +7598,29 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>POINT (4.8723368 52.3114898)</t>
+          <t>POINT (4.8688168 52.3325431)</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>1882</v>
+        <v>1841</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Zonnestein</t>
+          <t>A. J. Ernststraat</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>4.8723368</v>
+        <v>4.8688168</v>
       </c>
       <c r="F147" t="n">
-        <v>52.3114898</v>
+        <v>52.3325431</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>(4.8723368, 52.3114898)</t>
+          <t>(4.8688168, 52.3325431)</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7647,29 +7647,29 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>POINT (4.8706466 52.3156231)</t>
+          <t>POINT (4.8689764 52.3248943)</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>1881</v>
+        <v>1560</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Kronenburg</t>
+          <t>Van Boshuizenstraat</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4.8706466</v>
+        <v>4.8689764</v>
       </c>
       <c r="F148" t="n">
-        <v>52.3156231</v>
+        <v>52.3248943</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>(4.8706466, 52.3156231)</t>
+          <t>(4.8689764, 52.3248943)</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7745,29 +7745,29 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>POINT (4.8689764 52.3248943)</t>
+          <t>POINT (4.8706466 52.3156231)</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>1560</v>
+        <v>1881</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Van Boshuizenstraat</t>
+          <t>Kronenburg</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4.8689764</v>
+        <v>4.8706466</v>
       </c>
       <c r="F150" t="n">
-        <v>52.3248943</v>
+        <v>52.3156231</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>(4.8689764, 52.3248943)</t>
+          <t>(4.8706466, 52.3156231)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7794,29 +7794,29 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>POINT (4.8688168 52.3325431)</t>
+          <t>POINT (4.8723368 52.3114898)</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>1841</v>
+        <v>1882</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>A. J. Ernststraat</t>
+          <t>Zonnestein</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4.8688168</v>
+        <v>4.8723368</v>
       </c>
       <c r="F151" t="n">
-        <v>52.3325431</v>
+        <v>52.3114898</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>(4.8688168, 52.3325431)</t>
+          <t>(4.8723368, 52.3114898)</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7843,29 +7843,29 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>POINT (4.8686793 52.3382075)</t>
+          <t>POINT (4.8724478 52.3079604)</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>2</v>
       </c>
       <c r="C152" t="n">
-        <v>1543</v>
+        <v>1843</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Parnassusweg</t>
+          <t>Onderuit</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4.8686793</v>
+        <v>4.8724478</v>
       </c>
       <c r="F152" t="n">
-        <v>52.3382075</v>
+        <v>52.3079604</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>(4.8686793, 52.3382075)</t>
+          <t>(4.8724478, 52.3079604)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7892,29 +7892,29 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>POINT (4.8731849 52.3408165)</t>
+          <t>POINT (4.8716334 52.3027943)</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>200</v>
+        <v>1519</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Station Zuid</t>
+          <t>Oranjebaan</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>4.8731849</v>
+        <v>4.8716334</v>
       </c>
       <c r="F153" t="n">
-        <v>52.3408165</v>
+        <v>52.3027943</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>(4.8731849, 52.3408165)</t>
+          <t>(4.8716334, 52.3027943)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7941,29 +7941,29 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>POINT (4.9009769 52.3778507)</t>
+          <t>POINT (4.9334664 52.3732299)</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>2</v>
       </c>
       <c r="C154" t="n">
-        <v>790</v>
+        <v>1561</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Rietlandpark</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>4.9009769</v>
+        <v>4.9334664</v>
       </c>
       <c r="F154" t="n">
-        <v>52.3778507</v>
+        <v>52.3732299</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>(4.9009769, 52.3778507)</t>
+          <t>(4.9334664, 52.3732299)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7978,41 +7978,41 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>26, 7</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>26, 7</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>POINT (4.9334664 52.3732299)</t>
+          <t>POINT (4.9009769 52.3778507)</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>1561</v>
+        <v>790</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Rietlandpark</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4.9334664</v>
+        <v>4.9009769</v>
       </c>
       <c r="F155" t="n">
-        <v>52.3732299</v>
+        <v>52.3778507</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>(4.9334664, 52.3732299)</t>
+          <t>(4.9009769, 52.3778507)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8027,12 +8027,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>26, 7</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>26, 7</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
@@ -8137,29 +8137,29 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>POINT (4.8722954 52.3670831)</t>
+          <t>POINT (4.9328494 52.3612127)</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>2</v>
       </c>
       <c r="C158" t="n">
-        <v>1712</v>
+        <v>1583</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Kinkerstraat</t>
+          <t>Muiderpoortstation</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>4.8722954</v>
+        <v>4.9328494</v>
       </c>
       <c r="F158" t="n">
-        <v>52.3670831</v>
+        <v>52.3612127</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>(4.8722954, 52.3670831)</t>
+          <t>(4.9328494, 52.3612127)</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8174,41 +8174,41 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>19, 3</t>
+          <t>1, 3</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>19, 3</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>POINT (4.9328494 52.3612127)</t>
+          <t>POINT (4.8722954 52.3670831)</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>1583</v>
+        <v>1712</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
+          <t>Kinkerstraat</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4.9328494</v>
+        <v>4.8722954</v>
       </c>
       <c r="F159" t="n">
-        <v>52.3612127</v>
+        <v>52.3670831</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>(4.9328494, 52.3612127)</t>
+          <t>(4.8722954, 52.3670831)</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8223,41 +8223,41 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>19, 3</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>19, 3</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>POINT (4.9009807 52.3777002)</t>
+          <t>POINT (4.8962714 52.3428638)</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>1908</v>
+        <v>1568</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Maasstraat</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4.9009807</v>
+        <v>4.8962714</v>
       </c>
       <c r="F160" t="n">
-        <v>52.3777002</v>
+        <v>52.3428638</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>(4.9009807, 52.3777002)</t>
+          <t>(4.8962714, 52.3428638)</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8272,41 +8272,41 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>POINT (4.8983188 52.3638329)</t>
+          <t>POINT (4.9005615 52.3444211)</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
+          <t>Waalstraat</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4.8983188</v>
+        <v>4.9005615</v>
       </c>
       <c r="F161" t="n">
-        <v>52.3638329</v>
+        <v>52.3444211</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>(4.8983188, 52.3638329)</t>
+          <t>(4.9005615, 52.3444211)</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8321,41 +8321,41 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>POINT (4.8989773 52.3621338)</t>
+          <t>POINT (4.905072 52.3467733)</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>1873</v>
+        <v>1689</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Prinsengracht</t>
+          <t>Victorieplein</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4.8989773</v>
+        <v>4.905072</v>
       </c>
       <c r="F162" t="n">
-        <v>52.3621338</v>
+        <v>52.3467733</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>(4.8989773, 52.3621338)</t>
+          <t>(4.905072, 52.3467733)</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8370,12 +8370,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
@@ -8431,29 +8431,29 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>POINT (4.905072 52.3467733)</t>
+          <t>POINT (4.8989773 52.3621338)</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>1689</v>
+        <v>1873</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Prinsengracht</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4.905072</v>
+        <v>4.8989773</v>
       </c>
       <c r="F164" t="n">
-        <v>52.3467733</v>
+        <v>52.3621338</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>(4.905072, 52.3467733)</t>
+          <t>(4.8989773, 52.3621338)</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8468,41 +8468,41 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>POINT (4.9005615 52.3444211)</t>
+          <t>POINT (4.8983188 52.3638329)</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>2</v>
       </c>
       <c r="C165" t="n">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Waalstraat</t>
+          <t>Keizersgracht</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4.9005615</v>
+        <v>4.8983188</v>
       </c>
       <c r="F165" t="n">
-        <v>52.3444211</v>
+        <v>52.3638329</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>(4.9005615, 52.3444211)</t>
+          <t>(4.8983188, 52.3638329)</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8517,41 +8517,41 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>POINT (4.8962714 52.3428638)</t>
+          <t>POINT (4.9009807 52.3777002)</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>2</v>
       </c>
       <c r="C166" t="n">
-        <v>1568</v>
+        <v>1908</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4.8962714</v>
+        <v>4.9009807</v>
       </c>
       <c r="F166" t="n">
-        <v>52.3428638</v>
+        <v>52.3777002</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>(4.8962714, 52.3428638)</t>
+          <t>(4.9009807, 52.3777002)</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8566,41 +8566,41 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>POINT (4.896873 52.343118)</t>
+          <t>POINT (4.9003434 52.3778058)</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>1569</v>
+        <v>791</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
+          <t>Centraal Station</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4.896873</v>
+        <v>4.9003434</v>
       </c>
       <c r="F167" t="n">
-        <v>52.343118</v>
+        <v>52.3778058</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>(4.896873, 52.343118)</t>
+          <t>(4.9003434, 52.3778058)</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8615,41 +8615,41 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>POINT (4.9011051 52.3446536)</t>
+          <t>POINT (4.8982915 52.3637916)</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>1566</v>
+        <v>1722</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Waalstraat</t>
+          <t>Keizersgracht</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>4.9011051</v>
+        <v>4.8982915</v>
       </c>
       <c r="F168" t="n">
-        <v>52.3446536</v>
+        <v>52.3637916</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>(4.9011051, 52.3446536)</t>
+          <t>(4.8982915, 52.3637916)</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8664,41 +8664,41 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>POINT (4.9051006 52.3465873)</t>
+          <t>POINT (4.898949 52.3620972)</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>2</v>
       </c>
       <c r="C169" t="n">
-        <v>1726</v>
+        <v>1872</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Prinsengracht</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4.9051006</v>
+        <v>4.898949</v>
       </c>
       <c r="F169" t="n">
-        <v>52.3465873</v>
+        <v>52.3620972</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>(4.9051006, 52.3465873)</t>
+          <t>(4.898949, 52.3620972)</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8713,12 +8713,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>12, 4</t>
+          <t>12, 2, 4</t>
         </is>
       </c>
     </row>
@@ -8774,29 +8774,29 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>POINT (4.898949 52.3620972)</t>
+          <t>POINT (4.9051006 52.3465873)</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>1872</v>
+        <v>1726</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Prinsengracht</t>
+          <t>Victorieplein</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4.898949</v>
+        <v>4.9051006</v>
       </c>
       <c r="F171" t="n">
-        <v>52.3620972</v>
+        <v>52.3465873</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>(4.898949, 52.3620972)</t>
+          <t>(4.9051006, 52.3465873)</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8811,41 +8811,41 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>POINT (4.8982915 52.3637916)</t>
+          <t>POINT (4.9011051 52.3446536)</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>2</v>
       </c>
       <c r="C172" t="n">
-        <v>1722</v>
+        <v>1566</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
+          <t>Waalstraat</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>4.8982915</v>
+        <v>4.9011051</v>
       </c>
       <c r="F172" t="n">
-        <v>52.3637916</v>
+        <v>52.3446536</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>(4.8982915, 52.3637916)</t>
+          <t>(4.9011051, 52.3446536)</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8860,41 +8860,41 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>12, 2, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>POINT (4.9003434 52.3778058)</t>
+          <t>POINT (4.896873 52.343118)</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>2</v>
       </c>
       <c r="C173" t="n">
-        <v>791</v>
+        <v>1569</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Maasstraat</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4.9003434</v>
+        <v>4.896873</v>
       </c>
       <c r="F173" t="n">
-        <v>52.3778058</v>
+        <v>52.343118</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>(4.9003434, 52.3778058)</t>
+          <t>(4.896873, 52.343118)</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8909,12 +8909,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>12, 13, 14, 17, 2, 24, 26, 4</t>
+          <t>12, 4</t>
         </is>
       </c>
     </row>
@@ -9019,29 +9019,29 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>POINT (4.8485891 52.3733319)</t>
+          <t>POINT (4.9344045 52.372921)</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>2</v>
       </c>
       <c r="C176" t="n">
-        <v>1642</v>
+        <v>1810</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Rietlandpark</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4.8485891</v>
+        <v>4.9344045</v>
       </c>
       <c r="F176" t="n">
-        <v>52.3733319</v>
+        <v>52.372921</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>(4.8485891, 52.3733319)</t>
+          <t>(4.9344045, 52.372921)</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -9056,41 +9056,41 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>26, 7</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>26, 7</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>POINT (4.8499792 52.3706818)</t>
+          <t>POINT (4.9192366 52.3638735)</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>1889</v>
+        <v>1597</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Alexanderplein</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>4.8499792</v>
+        <v>4.9192366</v>
       </c>
       <c r="F177" t="n">
-        <v>52.3706818</v>
+        <v>52.3638735</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>(4.8499792, 52.3706818)</t>
+          <t>(4.9192366, 52.3638735)</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9105,12 +9105,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>13, 7</t>
+          <t>14, 19, 7</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>13, 7</t>
+          <t>14, 19, 7</t>
         </is>
       </c>
     </row>
@@ -9166,29 +9166,29 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>POINT (4.9192366 52.3638735)</t>
+          <t>POINT (4.8499792 52.3706818)</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>2</v>
       </c>
       <c r="C179" t="n">
-        <v>1597</v>
+        <v>1889</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Alexanderplein</t>
+          <t>Mercatorplein</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>4.9192366</v>
+        <v>4.8499792</v>
       </c>
       <c r="F179" t="n">
-        <v>52.3638735</v>
+        <v>52.3706818</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>(4.9192366, 52.3638735)</t>
+          <t>(4.8499792, 52.3706818)</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9203,41 +9203,41 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>14, 19, 7</t>
+          <t>13, 7</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>14, 19, 7</t>
+          <t>13, 7</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>POINT (4.9344045 52.372921)</t>
+          <t>POINT (4.8485891 52.3733319)</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>2</v>
       </c>
       <c r="C180" t="n">
-        <v>1810</v>
+        <v>1642</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Rietlandpark</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>4.9344045</v>
+        <v>4.8485891</v>
       </c>
       <c r="F180" t="n">
-        <v>52.372921</v>
+        <v>52.3733319</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>(4.9344045, 52.372921)</t>
+          <t>(4.8485891, 52.3733319)</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9252,41 +9252,41 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>26, 7</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>26, 7</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>POINT (4.9348327 52.3730107)</t>
+          <t>POINT (4.8487242 52.3729826)</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>2</v>
       </c>
       <c r="C181" t="n">
-        <v>1515</v>
+        <v>1802</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Rietlandpark</t>
+          <t>Jan van Galenstraat</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4.9348327</v>
+        <v>4.8487242</v>
       </c>
       <c r="F181" t="n">
-        <v>52.3730107</v>
+        <v>52.3729826</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>(4.9348327, 52.3730107)</t>
+          <t>(4.8487242, 52.3729826)</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9301,41 +9301,41 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>26, 7</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>26, 7</t>
+          <t>13, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>POINT (4.9185684 52.3633708)</t>
+          <t>POINT (4.8500681 52.3704058)</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>2</v>
       </c>
       <c r="C182" t="n">
-        <v>1803</v>
+        <v>1888</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Alexanderplein</t>
+          <t>Mercatorplein</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4.9185684</v>
+        <v>4.8500681</v>
       </c>
       <c r="F182" t="n">
-        <v>52.3633708</v>
+        <v>52.3704058</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>(4.9185684, 52.3633708)</t>
+          <t>(4.8500681, 52.3704058)</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9350,41 +9350,41 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>14, 19, 7</t>
+          <t>13, 7</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>14, 19, 7</t>
+          <t>13, 7</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>POINT (4.8500681 52.3704058)</t>
+          <t>POINT (4.9185684 52.3633708)</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>1888</v>
+        <v>1803</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Alexanderplein</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>4.8500681</v>
+        <v>4.9185684</v>
       </c>
       <c r="F183" t="n">
-        <v>52.3704058</v>
+        <v>52.3633708</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>(4.8500681, 52.3704058)</t>
+          <t>(4.9185684, 52.3633708)</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9399,41 +9399,41 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>13, 7</t>
+          <t>14, 19, 7</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>13, 7</t>
+          <t>14, 19, 7</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>POINT (4.8487242 52.3729826)</t>
+          <t>POINT (4.9348327 52.3730107)</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>2</v>
       </c>
       <c r="C184" t="n">
-        <v>1802</v>
+        <v>1515</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Rietlandpark</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.8487242</v>
+        <v>4.9348327</v>
       </c>
       <c r="F184" t="n">
-        <v>52.3729826</v>
+        <v>52.3730107</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>(4.8487242, 52.3729826)</t>
+          <t>(4.9348327, 52.3730107)</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9448,12 +9448,12 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>26, 7</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>13, 19, 7</t>
+          <t>26, 7</t>
         </is>
       </c>
     </row>
